--- a/Code/Results/Cases/Case_5_173/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_173/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.633122915590604</v>
+        <v>3.276109556179335</v>
       </c>
       <c r="C2">
-        <v>0.4023198860895434</v>
+        <v>0.1710648090743803</v>
       </c>
       <c r="D2">
-        <v>0.1592832189575262</v>
+        <v>0.05088992306788498</v>
       </c>
       <c r="E2">
-        <v>0.02310010962719922</v>
+        <v>0.04304938155365168</v>
       </c>
       <c r="F2">
-        <v>7.363845755067615</v>
+        <v>6.946608703946595</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1211484930857054</v>
+        <v>0.1678877235439842</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0916347725287352</v>
+        <v>0.2796376590314011</v>
       </c>
       <c r="M2">
-        <v>0.397286169188817</v>
+        <v>0.6080991648005636</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.330394129854767</v>
+        <v>3.240473125576898</v>
       </c>
       <c r="C3">
-        <v>0.34350720594324</v>
+        <v>0.1593196973514921</v>
       </c>
       <c r="D3">
-        <v>0.1386602689695025</v>
+        <v>0.04484173880580045</v>
       </c>
       <c r="E3">
-        <v>0.02198396523569102</v>
+        <v>0.04265931115016475</v>
       </c>
       <c r="F3">
-        <v>6.706004550587778</v>
+        <v>6.776167955705859</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1166492999673636</v>
+        <v>0.16631733863656</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08726195476583598</v>
+        <v>0.2815785064640437</v>
       </c>
       <c r="M3">
-        <v>0.3556217121795555</v>
+        <v>0.6051180434261099</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.151112996429731</v>
+        <v>3.221219722280807</v>
       </c>
       <c r="C4">
-        <v>0.3083890709757497</v>
+        <v>0.1523128592110652</v>
       </c>
       <c r="D4">
-        <v>0.1262616611665806</v>
+        <v>0.04112014866984737</v>
       </c>
       <c r="E4">
-        <v>0.02130955379773436</v>
+        <v>0.04241428963117233</v>
       </c>
       <c r="F4">
-        <v>6.312634138274234</v>
+        <v>6.67300045888274</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1139446395424386</v>
+        <v>0.1653364572585012</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.08481708564464441</v>
+        <v>0.2829349338563247</v>
       </c>
       <c r="M4">
-        <v>0.3310610779306771</v>
+        <v>0.6037491444177547</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.079533565032762</v>
+        <v>3.214033277698718</v>
       </c>
       <c r="C5">
-        <v>0.2942916960761579</v>
+        <v>0.1495084758910821</v>
       </c>
       <c r="D5">
-        <v>0.1212646817712795</v>
+        <v>0.03960130796406247</v>
       </c>
       <c r="E5">
-        <v>0.02103677368925094</v>
+        <v>0.04231303790313579</v>
       </c>
       <c r="F5">
-        <v>6.154641331198633</v>
+        <v>6.63132572387866</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1128541012953264</v>
+        <v>0.1649324567850741</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08387716262203782</v>
+        <v>0.2835291633455554</v>
       </c>
       <c r="M5">
-        <v>0.3212835150530324</v>
+        <v>0.6033072436212734</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.067732291023788</v>
+        <v>3.212879769715528</v>
       </c>
       <c r="C6">
-        <v>0.2919627506620941</v>
+        <v>0.1490458731736339</v>
       </c>
       <c r="D6">
-        <v>0.1204379960282154</v>
+        <v>0.03934896152296119</v>
       </c>
       <c r="E6">
-        <v>0.02099158362152576</v>
+        <v>0.04229613989232828</v>
       </c>
       <c r="F6">
-        <v>6.12853679034481</v>
+        <v>6.624427641420681</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1126736411400913</v>
+        <v>0.1648651113578694</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08372438582883035</v>
+        <v>0.2836303411312571</v>
       </c>
       <c r="M6">
-        <v>0.3196732124549087</v>
+        <v>0.6032408653932535</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.150141886136396</v>
+        <v>3.221120134759701</v>
       </c>
       <c r="C7">
-        <v>0.3081981292046976</v>
+        <v>0.1522748326543706</v>
       </c>
       <c r="D7">
-        <v>0.1261940587545212</v>
+        <v>0.04109967454928665</v>
       </c>
       <c r="E7">
-        <v>0.02130586755867192</v>
+        <v>0.04241292981896461</v>
       </c>
       <c r="F7">
-        <v>6.310494472997334</v>
+        <v>6.672436941662653</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1139298887022342</v>
+        <v>0.165331026234842</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.08480418618935204</v>
+        <v>0.2829427798471116</v>
       </c>
       <c r="M7">
-        <v>0.3309283107324745</v>
+        <v>0.6037427155093908</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.527258998507307</v>
+        <v>3.26327599087864</v>
       </c>
       <c r="C8">
-        <v>0.3818121122536979</v>
+        <v>0.166972290154547</v>
       </c>
       <c r="D8">
-        <v>0.1521107740518914</v>
+        <v>0.04880600971354454</v>
       </c>
       <c r="E8">
-        <v>0.02271255584304299</v>
+        <v>0.04291602038801212</v>
       </c>
       <c r="F8">
-        <v>7.134615427315879</v>
+        <v>6.88752893112823</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1195833080992337</v>
+        <v>0.167349655161388</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.09007466434314182</v>
+        <v>0.2802727002620244</v>
       </c>
       <c r="M8">
-        <v>0.3826918554621486</v>
+        <v>0.6069754091130264</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.3283603622275</v>
+        <v>3.366860676288411</v>
       </c>
       <c r="C9">
-        <v>0.535919940036564</v>
+        <v>0.1974436504792152</v>
       </c>
       <c r="D9">
-        <v>0.2055817503884043</v>
+        <v>0.06386695805305465</v>
       </c>
       <c r="E9">
-        <v>0.02559379434621789</v>
+        <v>0.04385957043913713</v>
       </c>
       <c r="F9">
-        <v>8.851959098954524</v>
+        <v>7.321403551961964</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1312786997010171</v>
+        <v>0.1711803682579074</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1025204947645548</v>
+        <v>0.2763419084387948</v>
       </c>
       <c r="M9">
-        <v>0.4936332288242795</v>
+        <v>0.6169838819496505</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.969476148733122</v>
+        <v>3.455831124156646</v>
       </c>
       <c r="C10">
-        <v>0.658143269801144</v>
+        <v>0.2208750269709014</v>
       </c>
       <c r="D10">
-        <v>0.2473748528423556</v>
+        <v>0.07491882383149573</v>
       </c>
       <c r="E10">
-        <v>0.02784514703473384</v>
+        <v>0.04452767904983634</v>
       </c>
       <c r="F10">
-        <v>10.20371185926149</v>
+        <v>7.647994882885484</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1404858869145578</v>
+        <v>0.1739230815192805</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1132856637081474</v>
+        <v>0.2742474856620802</v>
       </c>
       <c r="M10">
-        <v>0.583049356867086</v>
+        <v>0.6265867358435599</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.276636493150193</v>
+        <v>3.499127166959568</v>
       </c>
       <c r="C11">
-        <v>0.7165400531931141</v>
+        <v>0.2317699354063336</v>
       </c>
       <c r="D11">
-        <v>0.2671738193818385</v>
+        <v>0.07994760146419821</v>
       </c>
       <c r="E11">
-        <v>0.02891519252789543</v>
+        <v>0.04482640719529041</v>
       </c>
       <c r="F11">
-        <v>10.84584304959481</v>
+        <v>7.798370922274728</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1448743420638152</v>
+        <v>0.1751565949933251</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1186264407462545</v>
+        <v>0.2734665935958063</v>
       </c>
       <c r="M11">
-        <v>0.6260319960917684</v>
+        <v>0.631446927633931</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.395595961839376</v>
+        <v>3.51593020424508</v>
       </c>
       <c r="C12">
-        <v>0.7391414657571431</v>
+        <v>0.2359301391719839</v>
       </c>
       <c r="D12">
-        <v>0.274808730200462</v>
+        <v>0.08185234598522584</v>
       </c>
       <c r="E12">
-        <v>0.02932871424628303</v>
+        <v>0.04493879929569022</v>
       </c>
       <c r="F12">
-        <v>11.09368308647191</v>
+        <v>7.855582152492161</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1465716664779002</v>
+        <v>0.1756217652979934</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1207219361309058</v>
+        <v>0.273195573292071</v>
       </c>
       <c r="M12">
-        <v>0.6426997736450346</v>
+        <v>0.6333583062042507</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.369850903004135</v>
+        <v>3.512293204034677</v>
       </c>
       <c r="C13">
-        <v>0.734250614584198</v>
+        <v>0.2350326186825953</v>
       </c>
       <c r="D13">
-        <v>0.2731578684257414</v>
+        <v>0.08144210044009981</v>
       </c>
       <c r="E13">
-        <v>0.02923925391305637</v>
+        <v>0.04491462581875361</v>
       </c>
       <c r="F13">
-        <v>11.04008457092016</v>
+        <v>7.843248697421018</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1462044171872705</v>
+        <v>0.1755216669564383</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1202672188221428</v>
+        <v>0.273252844844933</v>
       </c>
       <c r="M13">
-        <v>0.6390916086250797</v>
+        <v>0.6329434985759974</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.286367724348679</v>
+        <v>3.500501379957143</v>
       </c>
       <c r="C14">
-        <v>0.7183891606963755</v>
+        <v>0.2321115020550337</v>
       </c>
       <c r="D14">
-        <v>0.2677990385372766</v>
+        <v>0.08010429520381024</v>
       </c>
       <c r="E14">
-        <v>0.02894903542664728</v>
+        <v>0.04483566828458407</v>
       </c>
       <c r="F14">
-        <v>10.86613436427035</v>
+        <v>7.803072330737791</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1450132272257676</v>
+        <v>0.1751949030176512</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1187973151730475</v>
+        <v>0.2734438019899628</v>
       </c>
       <c r="M14">
-        <v>0.6273950453237163</v>
+        <v>0.63160275513183</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.235589802524999</v>
+        <v>3.49333170600562</v>
       </c>
       <c r="C15">
-        <v>0.7087399035320345</v>
+        <v>0.2303267504201756</v>
       </c>
       <c r="D15">
-        <v>0.2645352968313688</v>
+        <v>0.07928491852551645</v>
       </c>
       <c r="E15">
-        <v>0.02877240835320194</v>
+        <v>0.04478721000659291</v>
       </c>
       <c r="F15">
-        <v>10.7602191573331</v>
+        <v>7.778498141297007</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1442884346971702</v>
+        <v>0.1749945017807377</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1179067744455224</v>
+        <v>0.2735639828778176</v>
       </c>
       <c r="M15">
-        <v>0.6202834531578603</v>
+        <v>0.6307907545529403</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.949748398157226</v>
+        <v>3.453058585346923</v>
       </c>
       <c r="C16">
-        <v>0.654390151793848</v>
+        <v>0.2201678180025226</v>
       </c>
       <c r="D16">
-        <v>0.2460987645397665</v>
+        <v>0.07459022988494723</v>
       </c>
       <c r="E16">
-        <v>0.0277762800765462</v>
+        <v>0.0445080533754636</v>
       </c>
       <c r="F16">
-        <v>10.16235719581059</v>
+        <v>7.638204441119484</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1402036661807102</v>
+        <v>0.1738421922478004</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1129463138697488</v>
+        <v>0.2743019748074786</v>
       </c>
       <c r="M16">
-        <v>0.5802916076429767</v>
+        <v>0.626279024802642</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.778639604376224</v>
+        <v>3.429076630072075</v>
       </c>
       <c r="C17">
-        <v>0.6218208686254343</v>
+        <v>0.2139964889545638</v>
       </c>
       <c r="D17">
-        <v>0.2350061551214679</v>
+        <v>0.07171070266706181</v>
       </c>
       <c r="E17">
-        <v>0.02717806513755949</v>
+        <v>0.0443354810447163</v>
       </c>
       <c r="F17">
-        <v>9.80306332575114</v>
+        <v>7.552606890770249</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1377534661781112</v>
+        <v>0.1731317329663362</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1100229562773052</v>
+        <v>0.2747987083806507</v>
       </c>
       <c r="M17">
-        <v>0.5563878707152412</v>
+        <v>0.6236373323799214</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.681653952238833</v>
+        <v>3.415548437924315</v>
       </c>
       <c r="C18">
-        <v>0.6033451760978323</v>
+        <v>0.2104690656429398</v>
       </c>
       <c r="D18">
-        <v>0.2286983880725728</v>
+        <v>0.07005457355204214</v>
       </c>
       <c r="E18">
-        <v>0.0268381872270842</v>
+        <v>0.04423573169113659</v>
       </c>
       <c r="F18">
-        <v>9.598915595271876</v>
+        <v>7.503543190871881</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1363625394369379</v>
+        <v>0.1727217565811934</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1083826356920667</v>
+        <v>0.2751005952801435</v>
       </c>
       <c r="M18">
-        <v>0.5428520869788045</v>
+        <v>0.6221641786323246</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.649050700465409</v>
+        <v>3.411013586061131</v>
       </c>
       <c r="C19">
-        <v>0.5971314518859572</v>
+        <v>0.2092785283329306</v>
       </c>
       <c r="D19">
-        <v>0.2265744485302719</v>
+        <v>0.06949384520510193</v>
       </c>
       <c r="E19">
-        <v>0.02672378451238444</v>
+        <v>0.04420187352742033</v>
       </c>
       <c r="F19">
-        <v>9.530204256664263</v>
+        <v>7.486960004764796</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1358945630162225</v>
+        <v>0.1725827125616632</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1078340568146032</v>
+        <v>0.2752055886385065</v>
       </c>
       <c r="M19">
-        <v>0.5383040416506333</v>
+        <v>0.6216733361923303</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.796703494682731</v>
+        <v>3.431602049159096</v>
       </c>
       <c r="C20">
-        <v>0.6252607237512962</v>
+        <v>0.2146511393306128</v>
       </c>
       <c r="D20">
-        <v>0.2361793254895872</v>
+        <v>0.07201722102058739</v>
       </c>
       <c r="E20">
-        <v>0.0272413000942322</v>
+        <v>0.04435390228209979</v>
       </c>
       <c r="F20">
-        <v>9.841046002579532</v>
+        <v>7.561701276874714</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1380123485359732</v>
+        <v>0.1732075004165026</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1103298352240643</v>
+        <v>0.2747441560040116</v>
       </c>
       <c r="M20">
-        <v>0.5589100203409032</v>
+        <v>0.6239137539948132</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.310813317947805</v>
+        <v>3.503953842904195</v>
       </c>
       <c r="C21">
-        <v>0.7230340527093233</v>
+        <v>0.2329685624219451</v>
       </c>
       <c r="D21">
-        <v>0.269369110939536</v>
+        <v>0.08049722642971346</v>
       </c>
       <c r="E21">
-        <v>0.02903403846807162</v>
+        <v>0.04485887968991875</v>
       </c>
       <c r="F21">
-        <v>10.91709400604884</v>
+        <v>7.814865797725247</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1453620849286814</v>
+        <v>0.1752909331926418</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1192269965572237</v>
+        <v>0.2733870434740098</v>
       </c>
       <c r="M21">
-        <v>0.6308194655021282</v>
+        <v>0.6319946372563194</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.662477333992797</v>
+        <v>3.553617598480514</v>
       </c>
       <c r="C22">
-        <v>0.7898300124199409</v>
+        <v>0.2451416730313838</v>
       </c>
       <c r="D22">
-        <v>0.2918764033371986</v>
+        <v>0.08604218711604972</v>
       </c>
       <c r="E22">
-        <v>0.03025524489524489</v>
+        <v>0.04518466635449236</v>
       </c>
       <c r="F22">
-        <v>11.64808338044099</v>
+        <v>7.981883610621992</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1503766304966234</v>
+        <v>0.1766413492328418</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1254732319188108</v>
+        <v>0.2726439728954873</v>
       </c>
       <c r="M22">
-        <v>0.6801324043492514</v>
+        <v>0.637689497882775</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.473197354548574</v>
+        <v>3.526892934420573</v>
       </c>
       <c r="C23">
-        <v>0.7538821445632209</v>
+        <v>0.2386259974129246</v>
       </c>
       <c r="D23">
-        <v>0.2797799933356941</v>
+        <v>0.08308238932477252</v>
       </c>
       <c r="E23">
-        <v>0.02959826909390539</v>
+        <v>0.04501117042337555</v>
       </c>
       <c r="F23">
-        <v>11.25511390921969</v>
+        <v>7.892597931706575</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1476783949591152</v>
+        <v>0.1759216002455801</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1220965059486758</v>
+        <v>0.2730274072281205</v>
       </c>
       <c r="M23">
-        <v>0.6535786720177228</v>
+        <v>0.6346121329801448</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.788532519688147</v>
+        <v>3.430459499499193</v>
       </c>
       <c r="C24">
-        <v>0.6237047964665976</v>
+        <v>0.2143551079155657</v>
       </c>
       <c r="D24">
-        <v>0.2356487203935131</v>
+        <v>0.07187864612011197</v>
       </c>
       <c r="E24">
-        <v>0.02721269909941615</v>
+        <v>0.04434557570912823</v>
       </c>
       <c r="F24">
-        <v>9.823866567942162</v>
+        <v>7.557589246109785</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1378952531011066</v>
+        <v>0.1731732507063164</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1101909702278476</v>
+        <v>0.274768768334873</v>
       </c>
       <c r="M24">
-        <v>0.5577691167280108</v>
+        <v>0.6237886417943486</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.103633108740155</v>
+        <v>3.336587318046725</v>
       </c>
       <c r="C25">
-        <v>0.4928984621641064</v>
+        <v>0.1890198127253768</v>
       </c>
       <c r="D25">
-        <v>0.1907483284396392</v>
+        <v>0.05979622062120882</v>
       </c>
       <c r="E25">
-        <v>0.02479562441095773</v>
+        <v>0.04360880639190512</v>
       </c>
       <c r="F25">
-        <v>8.373852151841078</v>
+        <v>7.202688595208826</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1280266413624354</v>
+        <v>0.1701571032340006</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.0988960932117493</v>
+        <v>0.2772657915718426</v>
       </c>
       <c r="M25">
-        <v>0.4624072951693421</v>
+        <v>0.6138822324665156</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_173/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_173/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.276109556179335</v>
+        <v>2.633122915590775</v>
       </c>
       <c r="C2">
-        <v>0.1710648090743803</v>
+        <v>0.4023198860903676</v>
       </c>
       <c r="D2">
-        <v>0.05088992306788498</v>
+        <v>0.159283218957782</v>
       </c>
       <c r="E2">
-        <v>0.04304938155365168</v>
+        <v>0.02310010962717612</v>
       </c>
       <c r="F2">
-        <v>6.946608703946595</v>
+        <v>7.363845755067587</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1678877235439842</v>
+        <v>0.121148493085645</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2796376590314011</v>
+        <v>0.09163477252865704</v>
       </c>
       <c r="M2">
-        <v>0.6080991648005636</v>
+        <v>0.3972861691887957</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.240473125576898</v>
+        <v>2.330394129854483</v>
       </c>
       <c r="C3">
-        <v>0.1593196973514921</v>
+        <v>0.3435072059423021</v>
       </c>
       <c r="D3">
-        <v>0.04484173880580045</v>
+        <v>0.1386602689692467</v>
       </c>
       <c r="E3">
-        <v>0.04265931115016475</v>
+        <v>0.02198396523568746</v>
       </c>
       <c r="F3">
-        <v>6.776167955705859</v>
+        <v>6.706004550587835</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.16631733863656</v>
+        <v>0.1166492999673707</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2815785064640437</v>
+        <v>0.08726195476580756</v>
       </c>
       <c r="M3">
-        <v>0.6051180434261099</v>
+        <v>0.3556217121795555</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.221219722280807</v>
+        <v>2.151112996429845</v>
       </c>
       <c r="C4">
-        <v>0.1523128592110652</v>
+        <v>0.3083890709762045</v>
       </c>
       <c r="D4">
-        <v>0.04112014866984737</v>
+        <v>0.1262616611661258</v>
       </c>
       <c r="E4">
-        <v>0.04241428963117233</v>
+        <v>0.02130955379771926</v>
       </c>
       <c r="F4">
-        <v>6.67300045888274</v>
+        <v>6.312634138274234</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1653364572585012</v>
+        <v>0.1139446395424635</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2829349338563247</v>
+        <v>0.08481708564452362</v>
       </c>
       <c r="M4">
-        <v>0.6037491444177547</v>
+        <v>0.33106107793067</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.214033277698718</v>
+        <v>2.079533565032989</v>
       </c>
       <c r="C5">
-        <v>0.1495084758910821</v>
+        <v>0.2942916960755042</v>
       </c>
       <c r="D5">
-        <v>0.03960130796406247</v>
+        <v>0.1212646817715637</v>
       </c>
       <c r="E5">
-        <v>0.04231303790313579</v>
+        <v>0.02103677368929269</v>
       </c>
       <c r="F5">
-        <v>6.63132572387866</v>
+        <v>6.154641331198576</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1649324567850741</v>
+        <v>0.1128541012952304</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2835291633455554</v>
+        <v>0.08387716262218703</v>
       </c>
       <c r="M5">
-        <v>0.6033072436212734</v>
+        <v>0.3212835150530253</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.212879769715528</v>
+        <v>2.067732291023958</v>
       </c>
       <c r="C6">
-        <v>0.1490458731736339</v>
+        <v>0.2919627506620941</v>
       </c>
       <c r="D6">
-        <v>0.03934896152296119</v>
+        <v>0.1204379960280875</v>
       </c>
       <c r="E6">
-        <v>0.04229613989232828</v>
+        <v>0.02099158362158349</v>
       </c>
       <c r="F6">
-        <v>6.624427641420681</v>
+        <v>6.128536790344839</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1648651113578694</v>
+        <v>0.1126736411400486</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2836303411312571</v>
+        <v>0.08372438582898667</v>
       </c>
       <c r="M6">
-        <v>0.6032408653932535</v>
+        <v>0.3196732124548873</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.221120134759701</v>
+        <v>2.150141886136396</v>
       </c>
       <c r="C7">
-        <v>0.1522748326543706</v>
+        <v>0.308198129204726</v>
       </c>
       <c r="D7">
-        <v>0.04109967454928665</v>
+        <v>0.1261940587545212</v>
       </c>
       <c r="E7">
-        <v>0.04241292981896461</v>
+        <v>0.0213058675586888</v>
       </c>
       <c r="F7">
-        <v>6.672436941662653</v>
+        <v>6.310494472997249</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.165331026234842</v>
+        <v>0.1139298887020992</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2829427798471116</v>
+        <v>0.08480418618945151</v>
       </c>
       <c r="M7">
-        <v>0.6037427155093908</v>
+        <v>0.3309283107324816</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.26327599087864</v>
+        <v>2.527258998507477</v>
       </c>
       <c r="C8">
-        <v>0.166972290154547</v>
+        <v>0.3818121122541527</v>
       </c>
       <c r="D8">
-        <v>0.04880600971354454</v>
+        <v>0.1521107740519057</v>
       </c>
       <c r="E8">
-        <v>0.04291602038801212</v>
+        <v>0.02271255584301635</v>
       </c>
       <c r="F8">
-        <v>6.88752893112823</v>
+        <v>7.134615427315964</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.167349655161388</v>
+        <v>0.1195833080992692</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2802727002620244</v>
+        <v>0.09007466434327682</v>
       </c>
       <c r="M8">
-        <v>0.6069754091130264</v>
+        <v>0.3826918554621557</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.366860676288411</v>
+        <v>3.328360362227272</v>
       </c>
       <c r="C9">
-        <v>0.1974436504792152</v>
+        <v>0.5359199400370187</v>
       </c>
       <c r="D9">
-        <v>0.06386695805305465</v>
+        <v>0.2055817503881769</v>
       </c>
       <c r="E9">
-        <v>0.04385957043913713</v>
+        <v>0.02559379434610154</v>
       </c>
       <c r="F9">
-        <v>7.321403551961964</v>
+        <v>8.85195909895458</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1711803682579074</v>
+        <v>0.1312786997010136</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2763419084387948</v>
+        <v>0.1025204947646614</v>
       </c>
       <c r="M9">
-        <v>0.6169838819496505</v>
+        <v>0.493633228824244</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.455831124156646</v>
+        <v>3.969476148733008</v>
       </c>
       <c r="C10">
-        <v>0.2208750269709014</v>
+        <v>0.6581432698010588</v>
       </c>
       <c r="D10">
-        <v>0.07491882383149573</v>
+        <v>0.2473748528422703</v>
       </c>
       <c r="E10">
-        <v>0.04452767904983634</v>
+        <v>0.02784514703476582</v>
       </c>
       <c r="F10">
-        <v>7.647994882885484</v>
+        <v>10.20371185926155</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1739230815192805</v>
+        <v>0.1404858869144228</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2742474856620802</v>
+        <v>0.113285663708119</v>
       </c>
       <c r="M10">
-        <v>0.6265867358435599</v>
+        <v>0.5830493568670789</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.499127166959568</v>
+        <v>4.27663649315042</v>
       </c>
       <c r="C11">
-        <v>0.2317699354063336</v>
+        <v>0.7165400531936257</v>
       </c>
       <c r="D11">
-        <v>0.07994760146419821</v>
+        <v>0.2671738193823217</v>
       </c>
       <c r="E11">
-        <v>0.04482640719529041</v>
+        <v>0.02891519252791142</v>
       </c>
       <c r="F11">
-        <v>7.798370922274728</v>
+        <v>10.84584304959458</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1751565949933251</v>
+        <v>0.1448743420637904</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2734665935958063</v>
+        <v>0.1186264407465814</v>
       </c>
       <c r="M11">
-        <v>0.631446927633931</v>
+        <v>0.6260319960918039</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.51593020424508</v>
+        <v>4.395595961838694</v>
       </c>
       <c r="C12">
-        <v>0.2359301391719839</v>
+        <v>0.7391414657570863</v>
       </c>
       <c r="D12">
-        <v>0.08185234598522584</v>
+        <v>0.2748087302002205</v>
       </c>
       <c r="E12">
-        <v>0.04493879929569022</v>
+        <v>0.02932871424639583</v>
       </c>
       <c r="F12">
-        <v>7.855582152492161</v>
+        <v>11.09368308647203</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1756217652979934</v>
+        <v>0.1465716664779748</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.273195573292071</v>
+        <v>0.1207219361309981</v>
       </c>
       <c r="M12">
-        <v>0.6333583062042507</v>
+        <v>0.6426997736450701</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.512293204034677</v>
+        <v>4.369850903004362</v>
       </c>
       <c r="C13">
-        <v>0.2350326186825953</v>
+        <v>0.7342506145840844</v>
       </c>
       <c r="D13">
-        <v>0.08144210044009981</v>
+        <v>0.2731578684259119</v>
       </c>
       <c r="E13">
-        <v>0.04491462581875361</v>
+        <v>0.02923925391301374</v>
       </c>
       <c r="F13">
-        <v>7.843248697421018</v>
+        <v>11.04008457092044</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1755216669564383</v>
+        <v>0.1462044171874801</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.273252844844933</v>
+        <v>0.1202672188221072</v>
       </c>
       <c r="M13">
-        <v>0.6329434985759974</v>
+        <v>0.6390916086251011</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.500501379957143</v>
+        <v>4.286367724348622</v>
       </c>
       <c r="C14">
-        <v>0.2321115020550337</v>
+        <v>0.7183891606959207</v>
       </c>
       <c r="D14">
-        <v>0.08010429520381024</v>
+        <v>0.2677990385375466</v>
       </c>
       <c r="E14">
-        <v>0.04483566828458407</v>
+        <v>0.02894903542665883</v>
       </c>
       <c r="F14">
-        <v>7.803072330737791</v>
+        <v>10.86613436427029</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1751949030176512</v>
+        <v>0.1450132272258067</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2734438019899628</v>
+        <v>0.1187973151729764</v>
       </c>
       <c r="M14">
-        <v>0.63160275513183</v>
+        <v>0.6273950453237163</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.49333170600562</v>
+        <v>4.235589802525055</v>
       </c>
       <c r="C15">
-        <v>0.2303267504201756</v>
+        <v>0.708739903532944</v>
       </c>
       <c r="D15">
-        <v>0.07928491852551645</v>
+        <v>0.2645352968315962</v>
       </c>
       <c r="E15">
-        <v>0.04478721000659291</v>
+        <v>0.02877240835326145</v>
       </c>
       <c r="F15">
-        <v>7.778498141297007</v>
+        <v>10.7602191573331</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1749945017807377</v>
+        <v>0.1442884346970388</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2735639828778176</v>
+        <v>0.1179067744453945</v>
       </c>
       <c r="M15">
-        <v>0.6307907545529403</v>
+        <v>0.6202834531578176</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.453058585346923</v>
+        <v>3.949748398157226</v>
       </c>
       <c r="C16">
-        <v>0.2201678180025226</v>
+        <v>0.6543901517933932</v>
       </c>
       <c r="D16">
-        <v>0.07459022988494723</v>
+        <v>0.2460987645397381</v>
       </c>
       <c r="E16">
-        <v>0.0445080533754636</v>
+        <v>0.02777628007660393</v>
       </c>
       <c r="F16">
-        <v>7.638204441119484</v>
+        <v>10.1623571958107</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1738421922478004</v>
+        <v>0.1402036661804758</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2743019748074786</v>
+        <v>0.1129463138697417</v>
       </c>
       <c r="M16">
-        <v>0.626279024802642</v>
+        <v>0.5802916076429696</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.429076630072075</v>
+        <v>3.778639604376394</v>
       </c>
       <c r="C17">
-        <v>0.2139964889545638</v>
+        <v>0.6218208686262869</v>
       </c>
       <c r="D17">
-        <v>0.07171070266706181</v>
+        <v>0.2350061551216243</v>
       </c>
       <c r="E17">
-        <v>0.0443354810447163</v>
+        <v>0.02717806513758525</v>
       </c>
       <c r="F17">
-        <v>7.552606890770249</v>
+        <v>9.803063325751282</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1731317329663362</v>
+        <v>0.1377534661785162</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2747987083806507</v>
+        <v>0.1100229562772554</v>
       </c>
       <c r="M17">
-        <v>0.6236373323799214</v>
+        <v>0.5563878707152199</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.415548437924315</v>
+        <v>3.681653952238662</v>
       </c>
       <c r="C18">
-        <v>0.2104690656429398</v>
+        <v>0.6033451760984292</v>
       </c>
       <c r="D18">
-        <v>0.07005457355204214</v>
+        <v>0.2286983880729423</v>
       </c>
       <c r="E18">
-        <v>0.04423573169113659</v>
+        <v>0.02683818722710196</v>
       </c>
       <c r="F18">
-        <v>7.503543190871881</v>
+        <v>9.598915595271649</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1727217565811934</v>
+        <v>0.1363625394368633</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2751005952801435</v>
+        <v>0.1083826356921023</v>
       </c>
       <c r="M18">
-        <v>0.6221641786323246</v>
+        <v>0.5428520869787761</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.411013586061131</v>
+        <v>3.649050700465523</v>
       </c>
       <c r="C19">
-        <v>0.2092785283329306</v>
+        <v>0.5971314518858435</v>
       </c>
       <c r="D19">
-        <v>0.06949384520510193</v>
+        <v>0.2265744485301582</v>
       </c>
       <c r="E19">
-        <v>0.04420187352742033</v>
+        <v>0.02672378451233737</v>
       </c>
       <c r="F19">
-        <v>7.486960004764796</v>
+        <v>9.53020425666449</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1725827125616632</v>
+        <v>0.1358945630163113</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2752055886385065</v>
+        <v>0.1078340568146814</v>
       </c>
       <c r="M19">
-        <v>0.6216733361923303</v>
+        <v>0.5383040416506546</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.431602049159096</v>
+        <v>3.796703494682902</v>
       </c>
       <c r="C20">
-        <v>0.2146511393306128</v>
+        <v>0.625260723751353</v>
       </c>
       <c r="D20">
-        <v>0.07201722102058739</v>
+        <v>0.2361793254894735</v>
       </c>
       <c r="E20">
-        <v>0.04435390228209979</v>
+        <v>0.02724130009433523</v>
       </c>
       <c r="F20">
-        <v>7.561701276874714</v>
+        <v>9.841046002579361</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1732075004165026</v>
+        <v>0.1380123485359945</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2747441560040116</v>
+        <v>0.1103298352239719</v>
       </c>
       <c r="M20">
-        <v>0.6239137539948132</v>
+        <v>0.5589100203409529</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.503953842904195</v>
+        <v>4.310813317947975</v>
       </c>
       <c r="C21">
-        <v>0.2329685624219451</v>
+        <v>0.7230340527091244</v>
       </c>
       <c r="D21">
-        <v>0.08049722642971346</v>
+        <v>0.2693691109391239</v>
       </c>
       <c r="E21">
-        <v>0.04485887968991875</v>
+        <v>0.02903403846805297</v>
       </c>
       <c r="F21">
-        <v>7.814865797725247</v>
+        <v>10.91709400604918</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1752909331926418</v>
+        <v>0.1453620849290722</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2733870434740098</v>
+        <v>0.1192269965570034</v>
       </c>
       <c r="M21">
-        <v>0.6319946372563194</v>
+        <v>0.6308194655020927</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.553617598480514</v>
+        <v>4.662477333992967</v>
       </c>
       <c r="C22">
-        <v>0.2451416730313838</v>
+        <v>0.7898300124199977</v>
       </c>
       <c r="D22">
-        <v>0.08604218711604972</v>
+        <v>0.2918764033371986</v>
       </c>
       <c r="E22">
-        <v>0.04518466635449236</v>
+        <v>0.03025524489524045</v>
       </c>
       <c r="F22">
-        <v>7.981883610621992</v>
+        <v>11.64808338044105</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1766413492328418</v>
+        <v>0.1503766304967336</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2726439728954873</v>
+        <v>0.1254732319188037</v>
       </c>
       <c r="M22">
-        <v>0.637689497882775</v>
+        <v>0.6801324043492727</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.526892934420573</v>
+        <v>4.473197354548347</v>
       </c>
       <c r="C23">
-        <v>0.2386259974129246</v>
+        <v>0.753882144562283</v>
       </c>
       <c r="D23">
-        <v>0.08308238932477252</v>
+        <v>0.2797799933359073</v>
       </c>
       <c r="E23">
-        <v>0.04501117042337555</v>
+        <v>0.02959826909389562</v>
       </c>
       <c r="F23">
-        <v>7.892597931706575</v>
+        <v>11.2551139092198</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1759216002455801</v>
+        <v>0.1476783949589588</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2730274072281205</v>
+        <v>0.1220965059489032</v>
       </c>
       <c r="M23">
-        <v>0.6346121329801448</v>
+        <v>0.6535786720177015</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.430459499499193</v>
+        <v>3.788532519688488</v>
       </c>
       <c r="C24">
-        <v>0.2143551079155657</v>
+        <v>0.6237047964670808</v>
       </c>
       <c r="D24">
-        <v>0.07187864612011197</v>
+        <v>0.23564872039384</v>
       </c>
       <c r="E24">
-        <v>0.04434557570912823</v>
+        <v>0.02721269909932822</v>
       </c>
       <c r="F24">
-        <v>7.557589246109785</v>
+        <v>9.823866567941963</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1731732507063164</v>
+        <v>0.1378952531010462</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.274768768334873</v>
+        <v>0.1101909702277766</v>
       </c>
       <c r="M24">
-        <v>0.6237886417943486</v>
+        <v>0.5577691167280179</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.336587318046725</v>
+        <v>3.103633108740155</v>
       </c>
       <c r="C25">
-        <v>0.1890198127253768</v>
+        <v>0.4928984621640211</v>
       </c>
       <c r="D25">
-        <v>0.05979622062120882</v>
+        <v>0.1907483284393976</v>
       </c>
       <c r="E25">
-        <v>0.04360880639190512</v>
+        <v>0.02479562441092487</v>
       </c>
       <c r="F25">
-        <v>7.202688595208826</v>
+        <v>8.373852151841078</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1701571032340006</v>
+        <v>0.1280266413622932</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2772657915718426</v>
+        <v>0.09889609321184167</v>
       </c>
       <c r="M25">
-        <v>0.6138822324665156</v>
+        <v>0.4624072951693421</v>
       </c>
       <c r="N25">
         <v>0</v>
